--- a/Xray_test_data.xlsx
+++ b/Xray_test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPython\docx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myPython\DetectionSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000CA5EB-49CF-40FD-8AAF-5210BCB0E1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A656AF85-2CFB-45BE-B650-5F84EE1A638F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7905" yWindow="1770" windowWidth="11175" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employer" sheetId="5" r:id="rId1"/>
@@ -268,15 +268,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他仪器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仪器编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邮编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪器设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,7 +691,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2">
         <v>276827</v>
@@ -709,7 +709,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,10 +720,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
